--- a/data/trans_dic/P13A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Habitat-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,65</t>
+          <t>0,68; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,66</t>
+          <t>0,38; 2,71</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,86</t>
+          <t>0,8; 2,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,44</t>
+          <t>2,92; 6,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,1</t>
+          <t>2,16; 4,19</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,65</t>
+          <t>0,81; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,06</t>
+          <t>3,53; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,01</t>
+          <t>2,47; 4,0</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,39</t>
+          <t>0,52; 2,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,37</t>
+          <t>2,51; 5,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,56</t>
+          <t>2,02; 3,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,4</t>
+          <t>0,28; 1,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,4</t>
+          <t>3,69; 7,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,21</t>
+          <t>2,31; 4,2</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,61</t>
+          <t>0,82; 1,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,26</t>
+          <t>3,73; 5,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,42</t>
+          <t>2,51; 3,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P13A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,65</t>
+          <t>0,66; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,71</t>
+          <t>0,37; 2,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,85</t>
+          <t>0,75; 2,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,26</t>
+          <t>2,99; 6,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,19</t>
+          <t>2,11; 4,1</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,62</t>
+          <t>0,85; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,97</t>
+          <t>3,59; 6,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,0</t>
+          <t>2,44; 4,01</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,23</t>
+          <t>0,6; 2,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,48</t>
+          <t>2,52; 5,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,63</t>
+          <t>2,0; 3,56</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,29</t>
+          <t>0,31; 1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,1</t>
+          <t>3,71; 7,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,2</t>
+          <t>2,22; 4,21</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,65</t>
+          <t>0,84; 1,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,25</t>
+          <t>3,76; 5,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,38</t>
+          <t>2,5; 3,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>0,65; 2,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,65</t>
+          <t>2,79; 5,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,66</t>
+          <t>1,86; 3,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,86</t>
+          <t>0,56; 2,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,44</t>
+          <t>3,67; 6,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,1</t>
+          <t>1,97; 3,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,65</t>
+          <t>0,58; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,06</t>
+          <t>1,76; 4,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,01</t>
+          <t>1,63; 3,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,39</t>
+          <t>0,32; 1,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,37</t>
+          <t>3,36; 6,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,56</t>
+          <t>2,02; 3,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,4</t>
+          <t>0,74; 1,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,4</t>
+          <t>3,37; 4,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,21</t>
+          <t>2,22; 3,16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,44%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 1,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 5,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 3,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
